--- a/checkpoints.xlsx
+++ b/checkpoints.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA183AC2-810C-4DB3-A8B8-35000C572DCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
   <si>
     <t>Task</t>
   </si>
@@ -31,12 +32,24 @@
   </si>
   <si>
     <t>HTML start</t>
+  </si>
+  <si>
+    <t>Done by vishal</t>
+  </si>
+  <si>
+    <t>UI designing</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,6 +152,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -186,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +235,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,6 +287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.21875" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -463,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -471,175 +521,185 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>3</v>
@@ -651,24 +711,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
